--- a/BUDGET/excel_reports/saob.xlsx
+++ b/BUDGET/excel_reports/saob.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="185">
   <si>
     <t>Bar 4</t>
   </si>
@@ -1337,10 +1337,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1739,7 +1739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6593,10 +6593,10 @@
         <v>184</v>
       </c>
       <c r="AG11" s="68"/>
-      <c r="AH11" s="141" t="s">
+      <c r="AH11" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="AI11" s="142" t="s">
+      <c r="AI11" s="141" t="s">
         <v>41</v>
       </c>
       <c r="AJ11" s="26" t="s">
@@ -6854,10 +6854,10 @@
       <c r="JV11" s="26"/>
       <c r="JW11" s="26"/>
       <c r="JX11" s="26"/>
-      <c r="JY11" s="141" t="s">
+      <c r="JY11" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="JZ11" s="142" t="s">
+      <c r="JZ11" s="141" t="s">
         <v>43</v>
       </c>
       <c r="KA11" s="26" t="s">
@@ -7194,8 +7194,8 @@
       </c>
       <c r="AF12" s="71"/>
       <c r="AG12" s="68"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="142"/>
+      <c r="AH12" s="142"/>
+      <c r="AI12" s="141"/>
       <c r="AJ12" s="32">
         <v>5010101001</v>
       </c>
@@ -7943,8 +7943,8 @@
       <c r="JX12" s="32">
         <v>5060699000</v>
       </c>
-      <c r="JY12" s="141"/>
-      <c r="JZ12" s="142"/>
+      <c r="JY12" s="142"/>
+      <c r="JZ12" s="141"/>
       <c r="KA12" s="32">
         <v>5010101001</v>
       </c>
@@ -12877,79 +12877,75 @@
         <v>5060699000</v>
       </c>
     </row>
-    <row r="19" spans="11:505">
-      <c r="AE19" s="55" t="e">
-        <f>+#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
+    <row r="17" spans="1:505">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:505">
+      <c r="A19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE19" s="55"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
       <c r="SK19" s="4"/>
     </row>
-    <row r="20" spans="11:505">
-      <c r="AE20" s="55" t="e">
-        <f>+#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
+    <row r="20" spans="1:505">
+      <c r="AE20" s="55"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
       <c r="SK20" s="4"/>
     </row>
-    <row r="21" spans="11:505">
-      <c r="AE21" s="55" t="e">
-        <f>+#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
+    <row r="21" spans="1:505">
+      <c r="A21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE21" s="55"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="SK21" s="4"/>
     </row>
-    <row r="22" spans="11:505">
-      <c r="AE22" s="55" t="e">
-        <f>+#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
+    <row r="22" spans="1:505">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE22" s="55"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
       <c r="SK22" s="4"/>
     </row>
-    <row r="23" spans="11:505">
-      <c r="AE23" s="55" t="e">
-        <f>+#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
+    <row r="23" spans="1:505">
+      <c r="AE23" s="55"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="6"/>
       <c r="SK23" s="4"/>
     </row>
-    <row r="24" spans="11:505">
-      <c r="AE24" s="55" t="e">
-        <f>+#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
+    <row r="24" spans="1:505">
+      <c r="AE24" s="55"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
       <c r="SK24" s="4"/>
     </row>
-    <row r="25" spans="11:505">
+    <row r="25" spans="1:505">
       <c r="AE25" s="55"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="SK25" s="4"/>
     </row>
-    <row r="26" spans="11:505">
+    <row r="26" spans="1:505">
       <c r="AE26" s="55"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
       <c r="SK26" s="4"/>
     </row>
-    <row r="27" spans="11:505">
+    <row r="27" spans="1:505">
       <c r="AE27" s="55"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
       <c r="SK27" s="4"/>
     </row>
-    <row r="29" spans="11:505">
+    <row r="29" spans="1:505">
       <c r="K29" s="84"/>
       <c r="L29" s="9"/>
       <c r="M29" s="4"/>
@@ -12974,7 +12970,7 @@
       <c r="KC29" s="4"/>
       <c r="SK29" s="4"/>
     </row>
-    <row r="30" spans="11:505">
+    <row r="30" spans="1:505">
       <c r="K30" s="84"/>
       <c r="L30" s="9"/>
       <c r="M30" s="4"/>
@@ -12999,7 +12995,7 @@
       <c r="KC30" s="4"/>
       <c r="SK30" s="4"/>
     </row>
-    <row r="31" spans="11:505">
+    <row r="31" spans="1:505">
       <c r="K31" s="84"/>
       <c r="L31" s="9"/>
       <c r="M31" s="4"/>
@@ -13024,7 +13020,7 @@
       <c r="KC31" s="4"/>
       <c r="SK31" s="4"/>
     </row>
-    <row r="32" spans="11:505">
+    <row r="32" spans="1:505">
       <c r="K32" s="84"/>
       <c r="L32" s="9"/>
       <c r="M32" s="4"/>

--- a/BUDGET/excel_reports/saob.xlsx
+++ b/BUDGET/excel_reports/saob.xlsx
@@ -17,7 +17,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$2:$AK$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN-DEC'!$A$1:$AF$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN-DEC'!$A$1:$AG$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$U$69</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'JAN-DEC'!$10:$14</definedName>
     <definedName name="Z_24A30693_6617_4D04_BF43_4D36BFF721D2_.wvu.Cols" localSheetId="0" hidden="1">'JAN-DEC'!$T:$AB</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="186">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>(9) = (7) / (5)</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
   </si>
 </sst>
 </file>
@@ -1243,15 +1246,6 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,6 +1262,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,9 +1667,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:TO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1690,7 +1693,7 @@
     <col min="29" max="29" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.7109375" style="2" customWidth="1"/>
     <col min="31" max="31" width="18.85546875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" style="7" customWidth="1"/>
+    <col min="32" max="32" width="17.140625" style="7" customWidth="1"/>
     <col min="33" max="33" width="13.85546875" style="7" customWidth="1"/>
     <col min="34" max="35" width="21.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="36" max="284" width="18.7109375" style="4" hidden="1" customWidth="1"/>
@@ -2755,31 +2758,31 @@
       <c r="SK3" s="4"/>
     </row>
     <row r="4" spans="1:535" hidden="1">
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
       <c r="AG4" s="58"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
@@ -3283,31 +3286,31 @@
       <c r="TO4" s="14"/>
     </row>
     <row r="5" spans="1:535" hidden="1">
-      <c r="J5" s="120" t="s">
+      <c r="J5" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
       <c r="AG5" s="59"/>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
@@ -3811,31 +3814,31 @@
       <c r="TO5" s="15"/>
     </row>
     <row r="6" spans="1:535" hidden="1">
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="118"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="118"/>
+      <c r="AE6" s="118"/>
+      <c r="AF6" s="118"/>
       <c r="AG6" s="60"/>
       <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
@@ -6476,18 +6479,18 @@
       <c r="TO10" s="19"/>
     </row>
     <row r="11" spans="1:535" s="27" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
       <c r="K11" s="71" t="s">
         <v>148</v>
       </c>
@@ -6520,7 +6523,9 @@
       <c r="AF11" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="AG11" s="61"/>
+      <c r="AG11" s="61" t="s">
+        <v>185</v>
+      </c>
       <c r="AH11" s="112" t="s">
         <v>153</v>
       </c>
@@ -7045,18 +7050,18 @@
       <c r="TO11" s="26"/>
     </row>
     <row r="12" spans="1:535" s="51" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="124"/>
       <c r="K12" s="72" t="s">
         <v>159</v>
       </c>
@@ -8622,16 +8627,16 @@
       </c>
     </row>
     <row r="13" spans="1:535" s="27" customFormat="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="118"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
       <c r="K13" s="72"/>
       <c r="L13" s="28" t="s">
         <v>12</v>
@@ -11298,8 +11303,14 @@
       <autoFilter ref="A15:QN1381"/>
     </customSheetView>
   </customSheetViews>
+  <mergeCells count="4">
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;LDOH RO7 SAOB - MARCH 2018&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/BUDGET/excel_reports/saob.xlsx
+++ b/BUDGET/excel_reports/saob.xlsx
@@ -17,7 +17,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$2:$AK$72</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN-DEC'!$A$1:$AG$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0" xml:space="preserve">   'JAN-DEC'!$A$1:$AG$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$U$69</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'JAN-DEC'!$10:$14</definedName>
     <definedName name="Z_24A30693_6617_4D04_BF43_4D36BFF721D2_.wvu.Cols" localSheetId="0" hidden="1">'JAN-DEC'!$T:$AB</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="186">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -1667,9 +1667,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:TO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1685,12 +1685,12 @@
     <col min="15" max="15" width="14.42578125" style="2" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" style="2" customWidth="1"/>
     <col min="17" max="18" width="16" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="2" customWidth="1"/>
     <col min="20" max="21" width="15.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="15.42578125" style="6" hidden="1" customWidth="1"/>
     <col min="23" max="27" width="15.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="12" style="2" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="17.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="0.140625" style="52" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="18.7109375" style="2" customWidth="1"/>
     <col min="31" max="31" width="18.85546875" style="2" customWidth="1"/>
     <col min="32" max="32" width="17.140625" style="7" customWidth="1"/>
@@ -7116,9 +7116,7 @@
       <c r="AB12" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="AC12" s="55" t="s">
-        <v>0</v>
-      </c>
+      <c r="AC12" s="55"/>
       <c r="AD12" s="74" t="s">
         <v>175</v>
       </c>
@@ -8659,9 +8657,7 @@
       <c r="Z13" s="35"/>
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
-      <c r="AC13" s="65" t="s">
-        <v>2</v>
-      </c>
+      <c r="AC13" s="65"/>
       <c r="AD13" s="75"/>
       <c r="AE13" s="29" t="s">
         <v>149</v>
@@ -9264,9 +9260,7 @@
       <c r="AB14" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="66" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC14" s="66"/>
       <c r="AD14" s="76" t="s">
         <v>182</v>
       </c>
@@ -11332,7 +11326,7 @@
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="P13" formulaRange="1"/>
-    <ignoredError sqref="M14:O14 JY14:JZ14 S14:AI14" numberStoredAsText="1"/>
+    <ignoredError sqref="M14:O14 JY14:JZ14 S14:AB14 AD14:AI14" numberStoredAsText="1"/>
     <ignoredError sqref="P14" numberStoredAsText="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>

--- a/BUDGET/excel_reports/saob.xlsx
+++ b/BUDGET/excel_reports/saob.xlsx
@@ -36,9 +36,9 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="CENSORED - Personal View" guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1407" windowHeight="878" activeSheetId="6"/>
+    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
     <customWorkbookView name="MGaviola - Personal View" guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" mergeInterval="0" personalView="1" xWindow="15" yWindow="37" windowWidth="1343" windowHeight="301" activeSheetId="1"/>
-    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
-    <customWorkbookView name="CENSORED - Personal View" guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1407" windowHeight="878" activeSheetId="6"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -500,9 +500,6 @@
     <t>OBLIGATIONS INCURRED</t>
   </si>
   <si>
-    <t>UNOBLIGATEG</t>
-  </si>
-  <si>
     <t>DISBURSEMENTS</t>
   </si>
   <si>
@@ -607,6 +604,9 @@
   </si>
   <si>
     <t>REMARKS</t>
+  </si>
+  <si>
+    <t>UNOBLIGATED</t>
   </si>
 </sst>
 </file>
@@ -1665,11 +1665,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO14"/>
+  <dimension ref="A1:TO23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
+      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6518,19 +6518,19 @@
       <c r="AC11" s="114"/>
       <c r="AD11" s="115"/>
       <c r="AE11" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF11" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="AF11" s="67" t="s">
+      <c r="AG11" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH11" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="AG11" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH11" s="112" t="s">
+      <c r="AI11" s="111" t="s">
         <v>153</v>
-      </c>
-      <c r="AI11" s="111" t="s">
-        <v>154</v>
       </c>
       <c r="AJ11" s="26" t="s">
         <v>105</v>
@@ -6735,7 +6735,7 @@
       <c r="HX11" s="26"/>
       <c r="HY11" s="26"/>
       <c r="HZ11" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="IA11" s="26"/>
       <c r="IB11" s="26"/>
@@ -6788,10 +6788,10 @@
       <c r="JW11" s="26"/>
       <c r="JX11" s="26"/>
       <c r="JY11" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="JZ11" s="111" t="s">
         <v>156</v>
-      </c>
-      <c r="JZ11" s="111" t="s">
-        <v>157</v>
       </c>
       <c r="KA11" s="26" t="s">
         <v>105</v>
@@ -6996,7 +6996,7 @@
       <c r="RO11" s="26"/>
       <c r="RP11" s="26"/>
       <c r="RQ11" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="RR11" s="26"/>
       <c r="RS11" s="26"/>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="12" spans="1:535" s="51" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="123"/>
       <c r="C12" s="123"/>
@@ -7063,13 +7063,13 @@
       <c r="I12" s="123"/>
       <c r="J12" s="124"/>
       <c r="K12" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="M12" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="N12" s="29" t="s">
         <v>12</v>
@@ -7078,50 +7078,50 @@
         <v>13</v>
       </c>
       <c r="P12" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="R12" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="R12" s="30" t="s">
+      <c r="S12" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="T12" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="T12" s="30" t="s">
+      <c r="U12" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="U12" s="30" t="s">
+      <c r="V12" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="V12" s="31" t="s">
+      <c r="W12" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="W12" s="30" t="s">
+      <c r="X12" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="X12" s="30" t="s">
+      <c r="Y12" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="Y12" s="30" t="s">
+      <c r="Z12" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="Z12" s="30" t="s">
+      <c r="AA12" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="AA12" s="30" t="s">
+      <c r="AB12" s="30" t="s">
         <v>173</v>
-      </c>
-      <c r="AB12" s="30" t="s">
-        <v>174</v>
       </c>
       <c r="AC12" s="55"/>
       <c r="AD12" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE12" s="29" t="s">
         <v>175</v>
-      </c>
-      <c r="AE12" s="29" t="s">
-        <v>176</v>
       </c>
       <c r="AF12" s="63"/>
       <c r="AG12" s="61"/>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="14" spans="1:535" s="47" customFormat="1">
       <c r="A14" s="125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="126"/>
@@ -9213,16 +9213,16 @@
       <c r="K14" s="73"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="N14" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="N14" s="57" t="s">
+      <c r="O14" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="P14" s="57" t="s">
         <v>180</v>
-      </c>
-      <c r="P14" s="57" t="s">
-        <v>181</v>
       </c>
       <c r="Q14" s="57" t="s">
         <v>4</v>
@@ -9262,13 +9262,13 @@
       </c>
       <c r="AC14" s="66"/>
       <c r="AD14" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE14" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AE14" s="42" t="s">
+      <c r="AF14" s="43" t="s">
         <v>183</v>
-      </c>
-      <c r="AF14" s="43" t="s">
-        <v>184</v>
       </c>
       <c r="AG14" s="62"/>
       <c r="AH14" s="44"/>
@@ -11273,20 +11273,11 @@
         <v>#REF!</v>
       </c>
     </row>
+    <row r="23" spans="31:31">
+      <c r="AE23" s="6"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
-      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
-      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="80" orientation="landscape"/>
-    </customSheetView>
-    <customSheetView guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" scale="90" showPageBreaks="1" printArea="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
-      <pane ySplit="4" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I280" sqref="I280"/>
-      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-    </customSheetView>
     <customSheetView guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" showPageBreaks="1" printArea="1" showAutoFilter="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A407">
       <selection activeCell="B415" activeCellId="48" sqref="B702 B698 B693 B688 B683 B679 B675 B668 B662 B658 B654 B650 B645 B641 B637 B632 B627 B622 B617 B612 B608 B604 B600 B596 B588 B582 B575 B569 B564 B559 B555 B551 B547 B543 B539 B535 B531 B525 B518 B513 B508 B461 B454 B447 B440 B434 B429 B422 B415"/>
       <pageMargins left="0.17" right="0" top="0.17" bottom="0.56000000000000005" header="0.3" footer="0.17"/>
@@ -11295,6 +11286,18 @@
         <oddFooter>&amp;LDOH RO7 SAOB - November 2017&amp;RPage &amp;P of &amp;N</oddFooter>
       </headerFooter>
       <autoFilter ref="A15:QN1381"/>
+    </customSheetView>
+    <customSheetView guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" scale="90" showPageBreaks="1" printArea="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
+      <pane ySplit="4" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I280" sqref="I280"/>
+      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="80" orientation="landscape"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="4">
